--- a/report/reliability/by-area-conhecimento/Engenharias.xlsx
+++ b/report/reliability/by-area-conhecimento/Engenharias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8938706359290857</v>
+        <v>0.8503341229713961</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8939738899390631</v>
+        <v>0.8517570960056076</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9588418186674021</v>
+        <v>0.9190248649542208</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.33154131487986266</v>
+        <v>0.3065070873399548</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>8.43163905027984</v>
+        <v>5.7456854463524785</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.027693741137395186</v>
+        <v>0.03937140104732892</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4516129032258065</v>
+        <v>2.300248138957816</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6074104272797848</v>
+        <v>0.5999194024465498</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3302356748570937</v>
+        <v>0.2861192679561531</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8900143435390241</v>
+        <v>0.8343845991511711</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8906120549294813</v>
+        <v>0.837460598798508</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.952830863008087</v>
+        <v>0.9078404965578212</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3372484049661395</v>
+        <v>0.30038758990026887</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.141775168692801</v>
+        <v>5.152354399044145</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.028734175721730038</v>
+        <v>0.04373965843281085</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.029321206599181242</v>
+        <v>0.03147212482957737</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3345220034291446</v>
+        <v>0.2924028104446275</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.893402304323673</v>
+        <v>0.8462327612738704</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8937546637571169</v>
+        <v>0.8492047617849339</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9585512800728155</v>
+        <v>0.9101744321216944</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3445894052921395</v>
+        <v>0.31940029030213885</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>8.412177845754478</v>
+        <v>5.631509136739368</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.027963138070079937</v>
+        <v>0.04061161772696171</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03312956561768832</v>
+        <v>0.026874339682739598</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3407563478356944</v>
+        <v>0.30710537171087904</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8840741090245667</v>
+        <v>0.8453214239704555</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8848147730883501</v>
+        <v>0.8466736854952032</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9540781194284856</v>
+        <v>0.9141532718022887</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3243719401460049</v>
+        <v>0.3151481453501082</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>7.681668880741335</v>
+        <v>5.522037676505394</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03036678076810415</v>
+        <v>0.04094078283123166</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.031774014273978184</v>
+        <v>0.03357920862890817</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3302356748570937</v>
+        <v>0.31545514433572247</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8869233609924106</v>
+        <v>0.8330388223605875</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.887177099684796</v>
+        <v>0.8349728976173607</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9521327296473306</v>
+        <v>0.8970552274797663</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.32951853956481136</v>
+        <v>0.29658418404934683</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>7.863448796354336</v>
+        <v>5.059610727947916</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.029392756685498945</v>
+        <v>0.043779874818357795</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.031841265377094904</v>
+        <v>0.02913597572746028</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.33367340246887645</v>
+        <v>0.2994361540833564</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8920539023501938</v>
+        <v>0.8366551377112517</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8920736110764574</v>
+        <v>0.8384000003414243</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9529449354369329</v>
+        <v>0.9095876610300746</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3406296651990027</v>
+        <v>0.30184331850340135</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.265574526990077</v>
+        <v>5.188118824955287</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02828875259435336</v>
+        <v>0.0431192624588586</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03342059728154721</v>
+        <v>0.03505797562120866</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3345220034291446</v>
+        <v>0.2758181207324736</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8894546405684642</v>
+        <v>0.8389482924863643</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8891171678596186</v>
+        <v>0.8385595387848165</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.954680340642926</v>
+        <v>0.9097932686108878</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3338476213989455</v>
+        <v>0.3020916213337758</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.018528663968166</v>
+        <v>5.194234038188871</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.028975697817977306</v>
+        <v>0.04266733061048419</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03574475493680876</v>
+        <v>0.03527800666239044</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.32616207360807337</v>
+        <v>0.27382644793420463</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8867996720415413</v>
+        <v>0.8414330860872493</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8864761293080419</v>
+        <v>0.8428320993724011</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9528246897244073</v>
+        <v>0.9087373956899896</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3279773149403253</v>
+        <v>0.30886016259840665</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>7.8087200859584405</v>
+        <v>5.362622367587945</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.029495787595374662</v>
+        <v>0.04185551206791723</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03526622879585089</v>
+        <v>0.03514225509522832</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3302356748570937</v>
+        <v>0.30082182922240464</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8897249116336253</v>
+        <v>0.8450367093834643</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8889393616752808</v>
+        <v>0.8452954838086766</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9527323264030298</v>
+        <v>0.9078198129649385</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.33344692935369563</v>
+        <v>0.31286965282501783</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.004090153670813</v>
+        <v>5.463935408086586</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.02861336411211372</v>
+        <v>0.04097233593799868</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.031219625986400865</v>
+        <v>0.033245976299058184</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.32066221757764146</v>
+        <v>0.2994361540833564</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8893403107450668</v>
+        <v>0.8346056753550898</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8894084045534166</v>
+        <v>0.8352937800672449</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9500462592772687</v>
+        <v>0.9057143330410358</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.33450566946781674</v>
+        <v>0.2970706173188284</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>8.042278447669272</v>
+        <v>5.071416127504308</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.028930525930738044</v>
+        <v>0.04343738205583722</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0356892632336037</v>
+        <v>0.033729387038122095</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3369850692548181</v>
+        <v>0.2861192679561531</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.887432400206165</v>
+        <v>0.8352752631350976</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8873248133439293</v>
+        <v>0.8366371567993688</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9553242610631446</v>
+        <v>0.8973812999027068</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3298448547300819</v>
+        <v>0.2991204027754675</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>7.875068501571657</v>
+        <v>5.121343020284412</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02943656553925221</v>
+        <v>0.043341806779183596</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03586202622692325</v>
+        <v>0.028830481497863648</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.31492091288022117</v>
+        <v>0.27382644793420463</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.881924769522341</v>
+        <v>0.8299082576193676</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8828995420007278</v>
+        <v>0.8332573078101385</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9524799315333159</v>
+        <v>0.9045872654713332</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3202965142634399</v>
+        <v>0.294004036903109</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>7.5396762496540894</v>
+        <v>4.997264329049878</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.031156703456647138</v>
+        <v>0.04524300476414227</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03429509015937596</v>
+        <v>0.034613487235716396</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3110995147773504</v>
+        <v>0.27382644793420463</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8830627343202692</v>
+        <v>0.8495231593095943</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8836628634008417</v>
+        <v>0.8522502352900053</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9495621572363427</v>
+        <v>0.9141442228933303</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3219105642000468</v>
+        <v>0.32463615865539813</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>7.595707520682045</v>
+        <v>5.768200287579573</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03061945115268031</v>
+        <v>0.039676106917968176</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03135831495923491</v>
+        <v>0.02752025958246871</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.32616207360807337</v>
+        <v>0.2994361540833564</v>
       </c>
     </row>
     <row r="23">
@@ -2897,672 +2885,636 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8860069998725933</v>
+        <v>0.8450342844503427</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8855263707171197</v>
+        <v>0.8451167009603601</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9533971948913312</v>
+        <v>0.912433065815602</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3259081093562106</v>
+        <v>0.3125759549041446</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>7.735636375508463</v>
+        <v>5.456474043363878</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.02980448059237152</v>
+        <v>0.0404384710357404</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.03476632372487583</v>
+        <v>0.03246110133515227</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.32616207360807337</v>
+        <v>0.2994361540833564</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8827430080648964</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.8838405548029148</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9488700075454086</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.32228822815768715</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>7.6088565445825145</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.030829373044008183</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.033283233825947035</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.31492091288022117</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8891730259850378</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.8888858128299495</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9534851949041802</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.33332641232047283</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>7.999750846123618</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.028756843481409708</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.03207708989093071</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.32066221757764146</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8889574495436431</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8884116125009405</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.952106198171361</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3322623367432345</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>7.961505963229622</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.028763683517478895</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.032095959938623554</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3302356748570937</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8930183727034121</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.893603353976468</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9580053596485375</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3442298428576098</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.398792512489786</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.027984373422642636</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.03078162290816807</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3369850692548181</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6765406135902927</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.651668194002013</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6318439097773295</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5836571729500527</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.148163564085045</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.5210824231099657</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.4907585746067501</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.4670693652555694</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.41184868644878003</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.225806451612903</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.0554517964472163</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.5053630959005352</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.526745625966243</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.4800713166654414</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.4135292653454358</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>1.8709677419354838</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>0.8847574237748622</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>31.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6887512738730842</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6838574451310844</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6892701617973176</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6163643226124571</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.8064516129032258</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>0.9458454714772274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5635541890063138</v>
+        <v>0.6490864475890787</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5428330963067678</v>
+        <v>0.6393479695982349</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5354514309753208</v>
+        <v>0.6040048870600879</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.487586564805753</v>
+        <v>0.5529978105507725</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.225806451612903</v>
+        <v>3.2580645161290325</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.0554517964472163</v>
+        <v>1.1245070604634984</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.44041839993737836</v>
+        <v>0.6170818141777147</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4577425802471526</v>
+        <v>0.6372465156708172</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.42092208020867194</v>
+        <v>0.605536163487573</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3674747242648415</v>
+        <v>0.5539903239699085</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>1.8709677419354838</v>
+        <v>1.7419354838709677</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>0.8847574237748622</v>
+        <v>0.7288228836273767</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.707963182901599</v>
+        <v>0.5659459097741939</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6920859212505512</v>
+        <v>0.5799625225645169</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6807743541666875</v>
+        <v>0.5460828610436992</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.6454226436161199</v>
+        <v>0.48424782974317965</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5806451612903225</v>
+        <v>2.7419354838709675</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.148163564085045</v>
+        <v>0.8550922732073567</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6350251852085143</v>
+        <v>0.49874095651361644</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6324309994346067</v>
+        <v>0.5460291236944869</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6291357777961215</v>
+        <v>0.5179514488372275</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5753669741388321</v>
+        <v>0.4267133410452915</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.8064516129032258</v>
+        <v>1.903225806451613</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>0.9458454714772274</v>
+        <v>0.7002303768369103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.46576483165809396</v>
+        <v>0.6667562315350156</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5036404569702493</v>
+        <v>0.6797406289714095</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.48751751299146484</v>
+        <v>0.6602448371978256</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.41014481173899914</v>
+        <v>0.585690009207299</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.903225806451613</v>
+        <v>2.0</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.7002303768369103</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5643661825152371</v>
+        <v>0.6726108132359941</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5822520332212235</v>
+        <v>0.6623927409440309</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5631575849669742</v>
+        <v>0.666091753635437</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5133257176460739</v>
+        <v>0.5737270263261722</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.7419354838709677</v>
+        <v>1.7741935483870968</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.7288228836273767</v>
+        <v>1.2030427373776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6391646845055204</v>
+        <v>0.7274003236294762</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6502955400745011</v>
+        <v>0.7056939274039584</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.63514473749837</v>
+        <v>0.6882017239420571</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5762921126223959</v>
+        <v>0.6405137361677473</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.0</v>
+        <v>2.935483870967742</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.0</v>
+        <v>1.2092830898502838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.5949964288561249</v>
+        <v>0.4527378968463093</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.5868965082787366</v>
+        <v>0.4464460063697948</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.5823969883164689</v>
+        <v>0.40631298357777273</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.5115472246093489</v>
+        <v>0.34710342711198916</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>1.7741935483870968</v>
+        <v>2.129032258064516</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2030427373776</v>
+        <v>0.9571462961627467</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>31.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5640809792745662</v>
+        <v>0.5382280947584664</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5746245100928061</v>
+        <v>0.5485147685353561</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5642653479398643</v>
+        <v>0.5133198072398564</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.50355987380698</v>
+        <v>0.43050205601963126</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.7419354838709675</v>
+        <v>2.935483870967742</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.8550922732073567</v>
+        <v>1.0625592962581036</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.6332173367852716</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.6286486367349876</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.6025833375994625</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.5608566200154922</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.2580645161290325</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.1245070604634984</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.753728323685546</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7393247274227782</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.7310087309217296</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6957774514452043</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.935483870967742</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.2092830898502838</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7374130878166831</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7206160588554381</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.722159057626928</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6910770401138352</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.806451612903226</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.9458454714772274</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6664101826921048</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6742799785933441</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6621462586573552</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6166927876647369</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.5483870967741935</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8500474370064828</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.7356590994864669</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.7162385054396019</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.7137761583092529</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.6808563857549642</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7419354838709675</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>1.0944630931948283</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.5793581147830653</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.588293437320488</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.5775676208439825</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5084467946824687</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.6774193548387095</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0128210363202885</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.5904590221646958</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6006272795726079</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5960791421019154</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.517079974407584</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.935483870967742</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>1.0625592962581036</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>31.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.46640269087678593</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.46191031648895886</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.43336598249992</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.3891695348801836</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.129032258064516</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>0.9571462961627467</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.0</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.25806451612903225</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.41935483870967744</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.1935483870967742</v>
@@ -3571,7 +3523,7 @@
         <v>0.0967741935483871</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.03225806451612903</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.45161290322580644</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.22580645161290322</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3225806451612903</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
         <v>0.16129032258064516</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.3870967741935484</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="D55" t="n" s="111">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="E55" t="n" s="112">
         <v>0.22580645161290322</v>
       </c>
-      <c r="E55" t="n" s="112">
-        <v>0.16129032258064516</v>
-      </c>
       <c r="F55" t="n" s="113">
-        <v>0.06451612903225806</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4838709677419355</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.2903225806451613</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.16129032258064516</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.2903225806451613</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5161290322580645</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="D57" t="n" s="111">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E57" t="n" s="112">
         <v>0.1935483870967742</v>
       </c>
-      <c r="E57" t="n" s="112">
-        <v>0.0</v>
-      </c>
       <c r="F57" t="n" s="113">
-        <v>0.0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.5806451612903226</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,25 +3771,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7159474671669792</v>
+        <v>0.6984355701934952</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7235876517747856</v>
+        <v>0.7006282780926223</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6792190513506632</v>
+        <v>0.6936812614164096</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.4659815453919687</v>
+        <v>0.4382368420669522</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.6177833820405985</v>
+        <v>2.340328851465099</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.08837854954211369</v>
+        <v>0.09546382035596787</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.02917312940787589</v>
+        <v>0.05381227823474777</v>
       </c>
       <c r="I11" t="n" s="179">
         <v>0.5268130249235289</v>
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.8415153234960271</v>
+        <v>0.7159474671669792</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.8429332260436713</v>
+        <v>0.7235876517747856</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.787046621656705</v>
+        <v>0.6792190513506631</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.6414365019313061</v>
+        <v>0.4659815453919687</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>5.366718910761121</v>
+        <v>2.6177833820405985</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.04821084882912037</v>
+        <v>0.08837854954211369</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.003938683103230242</v>
+        <v>0.02917312940787589</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.6128733337892694</v>
+        <v>0.5268130249235289</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.6984355701934952</v>
+        <v>0.8415153234960271</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.7006282780926223</v>
+        <v>0.8429332260436713</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.6936812614164096</v>
+        <v>0.787046621656705</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.4382368420669522</v>
+        <v>0.6414365019313061</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>2.340328851465099</v>
+        <v>5.366718910761121</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.09546382035596787</v>
+        <v>0.04821084882912037</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.05381227823474777</v>
+        <v>0.00393868310323025</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.5268130249235289</v>
+        <v>0.6128733337892694</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.6546160251718114</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.6461291247598646</v>
+        <v>0.6461291247598647</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.38717082690433785</v>
@@ -4200,7 +3876,7 @@
         <v>0.09773452750562797</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.08222168038092796</v>
+        <v>0.082221680380928</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.2730918762363418</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>31.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.819967191672097</v>
+        <v>0.8511768995585958</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.7990711270976</v>
+        <v>0.8256613542809103</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7455146280278538</v>
+        <v>0.7638251588874809</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.6489726006614908</v>
+        <v>0.6826545775583909</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.225806451612903</v>
+        <v>2.5806451612903225</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.0554517964472163</v>
+        <v>1.148163564085045</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>31.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.5912512089639704</v>
+        <v>0.819967191672097</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.6309169716840081</v>
+        <v>0.7990711270976</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.4614112790781231</v>
+        <v>0.7455146280278538</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.36200553846437744</v>
+        <v>0.6489726006614908</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>1.8709677419354838</v>
+        <v>2.225806451612903</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>0.8847574237748622</v>
+        <v>1.0554517964472163</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>31.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8511768995585958</v>
+        <v>0.5912512089639704</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.8256613542809103</v>
+        <v>0.6309169716840081</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.7638251588874809</v>
+        <v>0.4614112790781231</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6826545775583909</v>
+        <v>0.36200553846437744</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.5806451612903225</v>
+        <v>1.8709677419354838</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.148163564085045</v>
+        <v>0.8847574237748622</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.8746024775149062</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.8273114153497111</v>
+        <v>0.8273114153497109</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.7455894451811528</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.25806451612903225</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.41935483870967744</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.1935483870967742</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.0967741935483871</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.03225806451612903</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.45161290322580644</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.22580645161290322</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.3225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.0</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.16129032258064516</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.3870967741935484</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.22580645161290322</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.16129032258064516</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.7739099450189034</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8075585762226445</v>
+        <v>0.8075585762226446</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.3632612101464035</v>
@@ -4577,7 +4253,7 @@
         <v>0.643736479251592</v>
       </c>
       <c r="I6" t="n" s="267">
-        <v>0.34659351405282834</v>
+        <v>0.3465935140528284</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7482211037834086</v>
+        <v>0.7182531038989326</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7616054192437229</v>
+        <v>0.737988293117911</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7593104228841251</v>
+        <v>0.7453031789008551</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.3898514895806072</v>
+        <v>0.3603376071281227</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>3.194726225854737</v>
+        <v>2.8166233558793676</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.07052620836912384</v>
+        <v>0.07911597390811619</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.01464223211559918</v>
+        <v>0.020370718098681306</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.3770126057148417</v>
+        <v>0.34395965779236237</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.723218591432177</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7524152354333584</v>
+        <v>0.7524152354333583</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.3432251877483747</v>
@@ -4674,7 +4350,7 @@
         <v>0.08110068544209315</v>
       </c>
       <c r="H12" t="n" s="292">
-        <v>0.0236635112863388</v>
+        <v>0.02366351128633881</v>
       </c>
       <c r="I12" t="n" s="293">
         <v>0.34339020409616045</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7160493827160495</v>
+        <v>0.716605273361768</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7272727473704796</v>
+        <v>0.7391941984716671</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7405239039748251</v>
+        <v>0.7380124048014081</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.34782610994166474</v>
+        <v>0.3617784861976876</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>2.6666669368698015</v>
+        <v>2.8342705343974632</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.07695040536615355</v>
+        <v>0.07904820585326358</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.020906206128903947</v>
+        <v>0.021997014996123568</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.3439596577923623</v>
+        <v>0.35499848889286895</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.742942453854506</v>
+        <v>0.7482211037834086</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.751235643033078</v>
+        <v>0.7616054192437229</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7719648208486677</v>
+        <v>0.7593104228841251</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3765483802819635</v>
+        <v>0.3898514895806072</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.019868489974107</v>
+        <v>3.194726225854737</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.07160111594069486</v>
+        <v>0.07052620836912384</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.02027108248308564</v>
+        <v>0.014642232115599185</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.357632345153335</v>
+        <v>0.37701260571484163</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.716605273361768</v>
+        <v>0.7160493827160495</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7391941984716671</v>
+        <v>0.7272727473704796</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7380124048014083</v>
+        <v>0.7405239039748253</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.3617784861976876</v>
+        <v>0.34782610994166474</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>2.8342705343974632</v>
+        <v>2.6666669368698015</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.07904820585326358</v>
+        <v>0.07695040536615355</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.021997014996123568</v>
+        <v>0.02090620612890395</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.35499848889286895</v>
+        <v>0.34395965779236237</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7182531038989326</v>
+        <v>0.742942453854506</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.737988293117911</v>
+        <v>0.751235643033078</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7453031789008551</v>
+        <v>0.7719648208486677</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.3603376071281227</v>
+        <v>0.3765483802819635</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>2.8166233558793676</v>
+        <v>3.019868489974107</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.07911597390811617</v>
+        <v>0.07160111594069486</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.020370718098681306</v>
+        <v>0.020271082483085644</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.3439596577923623</v>
+        <v>0.357632345153335</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>31.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.5577947272315464</v>
+        <v>0.726366160860244</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.6204307365590798</v>
+        <v>0.692228479848634</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.5407895665770461</v>
+        <v>0.6289432137608779</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.41311021398497677</v>
+        <v>0.5349911103519567</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>1.903225806451613</v>
+        <v>3.2580645161290325</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.7002303768369103</v>
+        <v>1.1245070604634984</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7338574690427314</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.667302459350897</v>
+        <v>0.6673024593508972</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6010153443726618</v>
@@ -4895,22 +4571,22 @@
         <v>31.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7076739787765086</v>
+        <v>0.6898833367986377</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7226649114027507</v>
+        <v>0.6887232864633022</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6686780083312943</v>
+        <v>0.6294737963224247</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5361550867910392</v>
+        <v>0.5433137183495086</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.0</v>
+        <v>2.7419354838709675</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.0</v>
+        <v>0.8550922732073567</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>31.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.695378247743329</v>
+        <v>0.5577947272315464</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6527929046985852</v>
+        <v>0.6204307365590798</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.5588612264869303</v>
+        <v>0.5407895665770461</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.4711878041392127</v>
+        <v>0.41311021398497677</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>1.7741935483870968</v>
+        <v>1.903225806451613</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2030427373776</v>
+        <v>0.7002303768369103</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>31.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6898833367986377</v>
+        <v>0.7076739787765086</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6887232864633022</v>
+        <v>0.7226649114027507</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.6294737963224248</v>
+        <v>0.6686780083312943</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5433137183495086</v>
+        <v>0.5361550867910392</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.7419354838709675</v>
+        <v>2.0</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.8550922732073567</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>31.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.726366160860244</v>
+        <v>0.695378247743329</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.692228479848634</v>
+        <v>0.6527929046985852</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.6289432137608779</v>
+        <v>0.5588612264869304</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.5349911103519567</v>
+        <v>0.4711878041392127</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.2580645161290325</v>
+        <v>1.7741935483870968</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.1245070604634984</v>
+        <v>1.2030427373776</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="C31" t="n" s="338">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D31" t="n" s="339">
         <v>0.2903225806451613</v>
       </c>
-      <c r="C31" t="n" s="338">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="D31" t="n" s="339">
-        <v>0.1935483870967742</v>
-      </c>
       <c r="E31" t="n" s="340">
-        <v>0.0</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.0</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,16 +4754,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.3870967741935484</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C33" t="n" s="338">
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="D33" t="n" s="339">
         <v>0.3225806451612903</v>
       </c>
-      <c r="D33" t="n" s="339">
-        <v>0.1935483870967742</v>
-      </c>
       <c r="E33" t="n" s="340">
-        <v>0.0967741935483871</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F33" t="n" s="341">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.5806451612903226</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.25806451612903225</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.06451612903225806</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,16 +4800,16 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.03225806451612903</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.41935483870967744</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.3225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.22580645161290322</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="F35" t="n" s="341">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.0967741935483871</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.12903225806451613</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2903225806451613</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.3870967741935484</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.0967741935483871</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8550752957115315</v>
+        <v>0.7337926714688381</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8554997551693989</v>
+        <v>0.7415084452708955</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8972644464899907</v>
+        <v>0.663623215267729</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.4582212544455746</v>
+        <v>0.48880468124376525</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>5.9204034994702495</v>
+        <v>2.868598341821984</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.03986994799943868</v>
+        <v>0.08253984461062498</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.824884792626728</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.749339552670484</v>
+        <v>0.8734775114237132</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.5000882998266595</v>
+        <v>0.5000882998266594</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.8203883495145631</v>
+        <v>0.6643258426966292</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.82127467880545</v>
+        <v>0.6667451507813857</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.8693241455660043</v>
+        <v>0.5000882998266594</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.4337046576210119</v>
+        <v>0.5000882998266594</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>4.595178082860787</v>
+        <v>2.00070652338506</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.05082612757679526</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.030625722136095598</v>
-      </c>
+        <v>0.11970646954959253</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.5000882998266595</v>
+        <v>0.5000882998266594</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.8452718676122931</v>
+        <v>0.5798467884502061</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.8468975633565083</v>
+        <v>0.5832875526739398</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.860513149909962</v>
+        <v>0.41171908510781563</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.47968944729292545</v>
+        <v>0.41171908510781563</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>5.531574688968285</v>
+        <v>1.3997363323720007</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04278180802929737</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.014121386393056136</v>
-      </c>
+        <v>0.1494176069382212</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.5000882998266595</v>
+        <v>0.41171908510781574</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.832704152592887</v>
+        <v>0.701115678214915</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.8305878268278902</v>
+        <v>0.7135009433525203</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.8636049486687337</v>
+        <v>0.5546066587968205</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.4496808102969136</v>
+        <v>0.5546066587968206</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>4.902763545710951</v>
+        <v>2.490412888969619</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.04663798760761476</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.02869129059864524</v>
-      </c>
+        <v>0.10328980113359038</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.5000882998266595</v>
+        <v>0.5546066587968206</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8278464541314249</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8285418997568864</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8735116054510974</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.4461024805837422</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.8323287064424605</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.048035814341023775</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.028682215977710385</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.4723224995631036</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.8368128474366893</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.8377486222435344</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.8826142278631889</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.4625233601218965</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>5.16327586136723</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.04504565960291993</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.024990287502439427</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.5011434305336148</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8318659170467805</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8315341406784909</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8525183324874048</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.45134935551948985</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.935920809281287</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.04596321733608264</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.023122594582051164</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4723224995631036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8465235375221587</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8493784274100459</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.8868032194472284</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.48449866968304284</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>5.639155220629376</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.04320404112210626</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.02495394144071772</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.5011434305336148</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>31.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8310073669111792</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8072807248430465</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6541533644676376</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5533353715966594</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.935483870967742</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.2092830898502838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>31.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8239846643086366</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8435609616925003</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.7313685865180662</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.6292280308188133</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.129032258064516</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>0.9571462961627467</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>31.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7781546980938371</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.784898054787937</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5987064761447557</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5102821092283346</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.935483870967742</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>1.0625592962581036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.8174093118272591</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.8036431076175824</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7700891295974611</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.713648498097336</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.935483870967742</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.2092830898502838</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.6627620718403274</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.669001355892056</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.645278755783654</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.5415925659583631</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.806451612903226</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.9458454714772274</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7389004880446665</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7568655275206646</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.7266098899579759</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6503289357213371</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.5483870967741935</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8500474370064828</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.7733642930749929</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.7673427436669237</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.7251293058109846</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.6651462765716236</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7419354838709675</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>1.0944630931948283</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7199320481029318</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7192630198785742</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6658998627847388</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.6046247674471179</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.6774193548387095</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0128210363202885</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.7508618014281571</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.7519800892441437</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.7362385619835409</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.6387452340277304</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.935483870967742</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>1.0625592962581036</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>31.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6566503530696733</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6549201318250788</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5834823883193139</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5322605051372645</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.129032258064516</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>0.9571462961627467</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="D35" t="n" s="453">
+      <c r="B27" t="n" s="451">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D27" t="n" s="453">
         <v>0.4838709677419355</v>
       </c>
-      <c r="E35" t="n" s="454">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="E37" t="n" s="454">
+      <c r="E27" t="n" s="454">
         <v>0.1935483870967742</v>
       </c>
-      <c r="F37" t="n" s="455">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="F38" t="n" s="455">
+      <c r="F27" t="n" s="455">
         <v>0.06451612903225806</v>
       </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
